--- a/Private/FileUpdate.xlsx
+++ b/Private/FileUpdate.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="File" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">File!$B$2:$AC$3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -26,6 +29,21 @@
   </si>
   <si>
     <t>MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t>Trạng Thái</t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>Đã tải lên</t>
+  </si>
+  <si>
+    <t>Cập nhật</t>
+  </si>
+  <si>
+    <t>Hủy</t>
   </si>
 </sst>
 </file>
@@ -41,7 +59,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,8 +72,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -78,11 +102,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -93,6 +154,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y3"/>
+  <dimension ref="B2:AU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +500,20 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AR2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="6"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <f>ROW()-2</f>
         <v>1</v>
@@ -466,9 +545,46 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AR3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="9"/>
+    </row>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AR4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="9"/>
+    </row>
+    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AR5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="9"/>
+    </row>
+    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AR6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <dataConsolidate/>
+  <mergeCells count="8">
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D2:T2"/>
@@ -476,6 +592,11 @@
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="U3:Y3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:AC3">
+      <formula1>$AR$3:$AR$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Private/FileUpdate.xlsx
+++ b/Private/FileUpdate.xlsx
@@ -43,7 +43,7 @@
     <t>Cập nhật</t>
   </si>
   <si>
-    <t>Hủy</t>
+    <t>Xóa</t>
   </si>
 </sst>
 </file>
@@ -145,6 +145,12 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -154,12 +160,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,121 +464,121 @@
   <dimension ref="B2:AU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="Z3" sqref="Z3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AR2" s="4" t="s">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AR2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="6"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="3"/>
     </row>
     <row r="3" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AR3" s="7" t="s">
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AR3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="9"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="6"/>
     </row>
     <row r="4" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AR4" s="7" t="s">
+      <c r="AR4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="9"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="6"/>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AR5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="9"/>
+      <c r="AR5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="6"/>
     </row>
     <row r="6" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AR6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="9"/>
+      <c r="AR6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="6"/>
     </row>
   </sheetData>
   <dataConsolidate/>
